--- a/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
+++ b/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="0" windowWidth="23320" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,31 +146,6 @@
           </rPr>
           <t xml:space="preserve">
 substrate from which the individual was sampled</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eric Crandall:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Meters
-</t>
         </r>
       </text>
     </comment>
@@ -219,11 +194,36 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Meters
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eric Crandall:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Any notes from collection label</t>
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,30 +269,6 @@
           <t xml:space="preserve">
 Taxonomic information can be added algorithmically from OBIS or NCBI later
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eric Crandall:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Taxonomic information can be added algorithmically from OBIS or NCBI late</t>
         </r>
       </text>
     </comment>
@@ -344,7 +320,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eric Crandall:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Taxonomic information can be added algorithmically from OBIS or NCBI late</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="240">
   <si>
     <t>JF717899</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1262,6 +1262,15 @@
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>principalInvestigator</t>
+  </si>
+  <si>
+    <t>basisOfIdentification</t>
+  </si>
+  <si>
+    <t>Chordata</t>
   </si>
 </sst>
 </file>
@@ -1424,11 +1433,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1502,7 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1525,6 +1536,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1547,6 +1559,7 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2197,182 +2210,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="Y23" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" customWidth="1"/>
-    <col min="41" max="41" width="12.33203125" customWidth="1"/>
-    <col min="47" max="48" width="11.5" customWidth="1"/>
-    <col min="49" max="49" width="15.6640625" customWidth="1"/>
-    <col min="51" max="16384" width="10.83203125" style="17"/>
+    <col min="2" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="25.1640625" customWidth="1"/>
+    <col min="42" max="42" width="12.33203125" customWidth="1"/>
+    <col min="48" max="49" width="11.5" customWidth="1"/>
+    <col min="50" max="50" width="15.6640625" customWidth="1"/>
+    <col min="52" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="16" customFormat="1">
+    <row r="1" spans="1:51" s="16" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -2382,129 +2398,134 @@
       <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1">
         <v>2013</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2008</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>11</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3</v>
       </c>
       <c r="Q2" s="1">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="6">
-        <f t="shared" ref="S2:S16" si="0">-1*(23+(26.718/60))</f>
+      <c r="T2" s="6">
+        <f t="shared" ref="T2:T16" si="0">-1*(23+(26.718/60))</f>
         <v>-23.4453</v>
       </c>
-      <c r="T2" s="6">
-        <f t="shared" ref="T2:T16" si="1">151+(55.53/60)</f>
+      <c r="U2" s="6">
+        <f t="shared" ref="U2:U16" si="1">151+(55.53/60)</f>
         <v>151.9255</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>2008</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>11</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>17</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -2514,129 +2535,134 @@
       <c r="C3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="1">
         <v>2013</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2008</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>11</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3</v>
       </c>
       <c r="Q3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>2008</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>11</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>17</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="1" t="s">
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1" t="s">
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
-      <c r="AU3" s="1" t="s">
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2646,129 +2672,134 @@
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1">
         <v>2013</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2008</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>11</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>2008</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>11</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>17</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1" t="s">
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="1" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -2778,129 +2809,134 @@
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="1">
         <v>2013</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2008</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>11</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>2008</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>11</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>17</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1" t="s">
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1" t="s">
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="1" t="s">
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
         <v>234</v>
       </c>
@@ -2910,129 +2946,134 @@
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1">
         <v>2013</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2008</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>11</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>2008</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>11</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>17</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AE6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1" t="s">
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1" t="s">
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="1" t="s">
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" s="1" t="s">
         <v>235</v>
       </c>
@@ -3042,129 +3083,134 @@
       <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1">
         <v>2013</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="17">
+      <c r="I7" s="17">
         <v>2008</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>11</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>17</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P7" s="1">
-        <v>3</v>
       </c>
       <c r="Q7" s="1">
         <v>3</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>2008</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>11</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>17</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1" t="s">
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1" t="s">
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="1" t="s">
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -3174,129 +3220,134 @@
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1">
         <v>2013</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2008</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P8" s="1">
-        <v>3</v>
       </c>
       <c r="Q8" s="1">
         <v>3</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>2008</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>11</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>17</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AE8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="AH8" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1" t="s">
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1" t="s">
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="1" t="s">
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3306,129 +3357,134 @@
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1">
         <v>2013</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2008</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>11</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>17</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P9" s="1">
-        <v>3</v>
       </c>
       <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="6">
+      <c r="T9" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>2008</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>11</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>17</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AE9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="1" t="s">
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1" t="s">
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="1" t="s">
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3438,129 +3494,134 @@
       <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1">
         <v>2013</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2008</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>11</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>17</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3</v>
       </c>
       <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="1">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>2008</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>11</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>17</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1" t="s">
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1" t="s">
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="1" t="s">
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AW10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AY10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3570,129 +3631,134 @@
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="1">
         <v>2013</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2008</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>11</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P11" s="1">
-        <v>3</v>
       </c>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>2008</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>11</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>17</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AE11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1" t="s">
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1" t="s">
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="1" t="s">
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV11" s="1" t="s">
+      <c r="AW11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -3702,129 +3768,134 @@
       <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1">
         <v>2013</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>2008</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3</v>
       </c>
       <c r="Q12" s="1">
         <v>3</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="6">
+      <c r="T12" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T12" s="6">
+      <c r="U12" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>2008</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>11</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>17</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AE12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1" t="s">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1" t="s">
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="1" t="s">
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV12" s="1" t="s">
+      <c r="AW12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AX12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -3834,129 +3905,134 @@
       <c r="C13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1">
         <v>2013</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>2008</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>17</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P13" s="1">
-        <v>3</v>
       </c>
       <c r="Q13" s="1">
         <v>3</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S13" s="6">
+      <c r="T13" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>2008</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>11</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>17</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AE13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1" t="s">
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1" t="s">
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1" t="s">
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV13" s="1" t="s">
+      <c r="AW13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AW13" s="1" t="s">
+      <c r="AX13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -3966,129 +4042,134 @@
       <c r="C14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1">
         <v>2013</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>2008</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>11</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="1">
-        <v>3</v>
       </c>
       <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="1">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T14" s="6">
+      <c r="U14" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>2008</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>11</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>17</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AE14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="AH14" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1" t="s">
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1" t="s">
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="1" t="s">
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4098,129 +4179,134 @@
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1">
         <v>2013</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2008</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>11</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>17</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3</v>
       </c>
       <c r="Q15" s="1">
         <v>3</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S15" s="6">
+      <c r="T15" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>2008</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>11</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>17</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AE15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1" t="s">
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1" t="s">
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="1" t="s">
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AW15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW15" s="1" t="s">
+      <c r="AX15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -4230,129 +4316,134 @@
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="1">
         <v>2013</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2008</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>11</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>17</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="1">
-        <v>3</v>
       </c>
       <c r="Q16" s="1">
         <v>3</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="1">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="6">
+      <c r="T16" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>2008</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>11</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>17</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AE16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="AH16" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="1" t="s">
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1" t="s">
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="1" t="s">
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV16" s="1" t="s">
+      <c r="AW16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -4362,123 +4453,128 @@
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1">
         <v>2013</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>2009</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>13</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="N17" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="1" t="s">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="6">
+      <c r="T17" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>2009</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>4</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>13</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AH17" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="1" t="s">
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1" t="s">
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
-      <c r="AU17" s="1" t="s">
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV17" s="1" t="s">
+      <c r="AW17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AX17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX17" s="1" t="s">
+      <c r="AY17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -4488,123 +4584,128 @@
       <c r="C18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1">
         <v>2013</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>2009</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="N18" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="1" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>2009</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>4</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>13</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AE18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="1" t="s">
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1" t="s">
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
-      <c r="AU18" s="1" t="s">
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV18" s="1" t="s">
+      <c r="AW18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AW18" s="1" t="s">
+      <c r="AX18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX18" s="1" t="s">
+      <c r="AY18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -4614,123 +4715,128 @@
       <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1">
         <v>2013</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>7</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>2009</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>13</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="6">
+      <c r="T19" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T19" s="6">
+      <c r="U19" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>2009</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>4</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>13</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="1" t="s">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1" t="s">
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="1" t="s">
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV19" s="1" t="s">
+      <c r="AW19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AW19" s="1" t="s">
+      <c r="AX19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX19" s="1" t="s">
+      <c r="AY19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -4740,123 +4846,128 @@
       <c r="C20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1">
         <v>2013</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>7</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2009</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>13</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="N20" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U20" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>2009</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>4</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>13</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="AH20" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="1" t="s">
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1" t="s">
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="1" t="s">
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="1" t="s">
+      <c r="AW20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AW20" s="1" t="s">
+      <c r="AX20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -4866,123 +4977,128 @@
       <c r="C21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="1">
         <v>2013</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2009</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>13</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="N21" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="1" t="s">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="6">
+      <c r="T21" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U21" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>2009</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>13</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AH21" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-      <c r="AK21" s="1" t="s">
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1" t="s">
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
-      <c r="AU21" s="1" t="s">
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV21" s="1" t="s">
+      <c r="AW21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW21" s="1" t="s">
+      <c r="AX21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX21" s="1" t="s">
+      <c r="AY21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -4992,123 +5108,128 @@
       <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="1">
         <v>2013</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>2009</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>4</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>13</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="1" t="s">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="6">
+      <c r="T22" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U22" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>2009</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>4</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>13</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AE22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="1" t="s">
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM22" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1" t="s">
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
-      <c r="AU22" s="1" t="s">
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV22" s="1" t="s">
+      <c r="AW22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW22" s="1" t="s">
+      <c r="AX22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX22" s="1" t="s">
+      <c r="AY22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -5118,123 +5239,128 @@
       <c r="C23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1">
         <v>2013</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>2009</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>13</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="1" t="s">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T23" s="6">
+      <c r="U23" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>2009</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>4</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>13</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AE23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AH23" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="1" t="s">
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1" t="s">
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
-      <c r="AU23" s="1" t="s">
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AW23" s="1" t="s">
+      <c r="AX23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX23" s="1" t="s">
+      <c r="AY23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -5244,123 +5370,128 @@
       <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1">
         <v>2013</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>2009</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>13</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="N24" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="1" t="s">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S24" s="6">
+      <c r="T24" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T24" s="6">
+      <c r="U24" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>2009</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>4</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>13</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AE24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-      <c r="AK24" s="1" t="s">
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM24" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1" t="s">
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
-      <c r="AU24" s="1" t="s">
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV24" s="1" t="s">
+      <c r="AW24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AW24" s="1" t="s">
+      <c r="AX24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX24" s="1" t="s">
+      <c r="AY24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -5370,123 +5501,128 @@
       <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="1">
         <v>2013</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>7</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>2009</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>4</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>13</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="N25" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="1" t="s">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="6">
+      <c r="T25" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>2009</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>4</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>13</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AE25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="1" t="s">
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1" t="s">
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
-      <c r="AU25" s="1" t="s">
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV25" s="1" t="s">
+      <c r="AW25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW25" s="1" t="s">
+      <c r="AX25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX25" s="1" t="s">
+      <c r="AY25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -5496,123 +5632,128 @@
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="1">
         <v>2013</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>7</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>2009</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>4</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>13</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="6">
+      <c r="T26" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T26" s="6">
+      <c r="U26" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>0</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Y26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>2009</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>4</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>13</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AE26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="AH26" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-      <c r="AK26" s="1" t="s">
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM26" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1" t="s">
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
-      <c r="AU26" s="1" t="s">
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV26" s="1" t="s">
+      <c r="AW26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AW26" s="1" t="s">
+      <c r="AX26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX26" s="1" t="s">
+      <c r="AY26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -5622,123 +5763,128 @@
       <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="1">
         <v>2013</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>7</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>2009</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>13</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="1" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S27" s="6">
+      <c r="T27" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>0</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>2009</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>4</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>13</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD27" s="5" t="s">
+      <c r="AE27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AK27" s="1" t="s">
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM27" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1" t="s">
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
-      <c r="AU27" s="1" t="s">
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV27" s="1" t="s">
+      <c r="AW27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AW27" s="1" t="s">
+      <c r="AX27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX27" s="1" t="s">
+      <c r="AY27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -5748,128 +5894,133 @@
       <c r="C28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="1">
         <v>2013</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>10</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>7</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>2009</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>11</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>6</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="N28" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P28" s="1">
-        <v>5</v>
       </c>
       <c r="Q28" s="1">
         <v>5</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="1">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="6">
-        <f t="shared" ref="S28" si="2">-1*(P28+(Q28/60))</f>
+      <c r="T28" s="6">
+        <f t="shared" ref="T28" si="2">-1*(Q28+(R28/60))</f>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T28" s="6">
+      <c r="U28" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>0</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>2009</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>11</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>6</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AE28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="1" t="s">
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1" t="s">
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
-      <c r="AU28" s="1" t="s">
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV28" s="1" t="s">
+      <c r="AW28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW28" s="1" t="s">
+      <c r="AX28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX28" s="1" t="s">
+      <c r="AY28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -5879,128 +6030,133 @@
       <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="1">
         <v>2013</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>10</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>2009</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>11</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>6</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="N29" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P29" s="1">
-        <v>5</v>
       </c>
       <c r="Q29" s="1">
         <v>5</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="6">
-        <f t="shared" ref="S29:S45" si="3">-1*(P29+(Q29/60))</f>
+      <c r="T29" s="6">
+        <f t="shared" ref="T29:T45" si="3">-1*(Q29+(R29/60))</f>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T29" s="6">
+      <c r="U29" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>0</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>2009</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>11</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>6</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AE29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="1" t="s">
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM29" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1" t="s">
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
-      <c r="AU29" s="1" t="s">
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV29" s="1" t="s">
+      <c r="AW29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AX29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX29" s="1" t="s">
+      <c r="AY29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -6010,128 +6166,133 @@
       <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="1">
         <v>2013</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>7</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>2009</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>11</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>6</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="N30" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P30" s="1">
-        <v>5</v>
       </c>
       <c r="Q30" s="1">
         <v>5</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="1">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S30" s="6">
+      <c r="T30" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U30" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>0</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AA30" s="1">
         <v>2009</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>11</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>6</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AE30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="1" t="s">
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM30" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1" t="s">
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
-      <c r="AU30" s="1" t="s">
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV30" s="1" t="s">
+      <c r="AW30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AW30" s="1" t="s">
+      <c r="AX30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX30" s="1" t="s">
+      <c r="AY30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -6141,128 +6302,133 @@
       <c r="C31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="1">
         <v>2013</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>7</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>2009</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>11</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>6</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="N31" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P31" s="1">
-        <v>5</v>
       </c>
       <c r="Q31" s="1">
         <v>5</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="1">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="6">
+      <c r="T31" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T31" s="6">
+      <c r="U31" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>0</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AA31" s="1">
         <v>2009</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>11</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>6</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD31" s="5" t="s">
+      <c r="AE31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+      <c r="AH31" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="1" t="s">
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1" t="s">
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
-      <c r="AU31" s="1" t="s">
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -6272,128 +6438,133 @@
       <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1">
         <v>2013</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>7</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>2009</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>11</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>6</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="N32" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P32" s="1">
-        <v>5</v>
       </c>
       <c r="Q32" s="1">
         <v>5</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="1">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S32" s="6">
+      <c r="T32" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T32" s="6">
+      <c r="U32" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AA32" s="1">
         <v>2009</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>11</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>6</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD32" s="5" t="s">
+      <c r="AE32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
+      <c r="AH32" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1" t="s">
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM32" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1" t="s">
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
-      <c r="AU32" s="1" t="s">
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV32" s="1" t="s">
+      <c r="AW32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AW32" s="1" t="s">
+      <c r="AX32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX32" s="1" t="s">
+      <c r="AY32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -6403,128 +6574,133 @@
       <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1">
         <v>2013</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>10</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>7</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>2009</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>11</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>6</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="N33" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P33" s="1">
-        <v>5</v>
       </c>
       <c r="Q33" s="1">
         <v>5</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="1">
+        <v>5</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S33" s="6">
+      <c r="T33" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T33" s="6">
+      <c r="U33" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>0</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="Y33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AA33" s="1">
         <v>2009</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>11</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AC33" s="1">
         <v>6</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD33" s="5" t="s">
+      <c r="AE33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE33" s="1" t="s">
+      <c r="AF33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
+      <c r="AH33" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1" t="s">
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM33" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1" t="s">
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
-      <c r="AU33" s="1" t="s">
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV33" s="1" t="s">
+      <c r="AW33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AW33" s="1" t="s">
+      <c r="AX33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX33" s="1" t="s">
+      <c r="AY33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -6534,128 +6710,133 @@
       <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1">
         <v>2013</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>7</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>2009</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>11</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>6</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="N34" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P34" s="1">
-        <v>5</v>
       </c>
       <c r="Q34" s="1">
         <v>5</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="1">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="6">
+      <c r="T34" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T34" s="6">
+      <c r="U34" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>0</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="Y34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AA34" s="1">
         <v>2009</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AB34" s="1">
         <v>11</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AC34" s="1">
         <v>6</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD34" s="5" t="s">
+      <c r="AE34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
+      <c r="AH34" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="1" t="s">
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM34" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1" t="s">
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
-      <c r="AU34" s="1" t="s">
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV34" s="1" t="s">
+      <c r="AW34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AW34" s="1" t="s">
+      <c r="AX34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX34" s="1" t="s">
+      <c r="AY34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -6665,128 +6846,133 @@
       <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1">
         <v>2013</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>7</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>2009</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>11</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>6</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="N35" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P35" s="1">
-        <v>5</v>
       </c>
       <c r="Q35" s="1">
         <v>5</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" s="1">
+        <v>5</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S35" s="6">
+      <c r="T35" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T35" s="6">
+      <c r="U35" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>0</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="Y35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AA35" s="1">
         <v>2009</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AB35" s="1">
         <v>11</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <v>6</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD35" s="5" t="s">
+      <c r="AE35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE35" s="1" t="s">
+      <c r="AF35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
+      <c r="AH35" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-      <c r="AK35" s="1" t="s">
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL35" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM35" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1" t="s">
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
-      <c r="AU35" s="1" t="s">
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV35" s="1" t="s">
+      <c r="AW35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AW35" s="1" t="s">
+      <c r="AX35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX35" s="1" t="s">
+      <c r="AY35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -6796,128 +6982,133 @@
       <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="1">
         <v>2013</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>7</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>2009</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>11</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>6</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P36" s="1">
-        <v>5</v>
       </c>
       <c r="Q36" s="1">
         <v>5</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="1">
+        <v>5</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S36" s="6">
+      <c r="T36" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T36" s="6">
+      <c r="U36" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>0</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="Y36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="AA36" s="1">
         <v>2009</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AB36" s="1">
         <v>11</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AC36" s="1">
         <v>6</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AE36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
+      <c r="AH36" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="1" t="s">
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM36" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1" t="s">
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
-      <c r="AU36" s="1" t="s">
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="1" t="s">
+      <c r="AW36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AW36" s="1" t="s">
+      <c r="AX36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX36" s="1" t="s">
+      <c r="AY36" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -6927,128 +7118,133 @@
       <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1">
         <v>2013</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>10</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>7</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>2009</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>11</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>6</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N37" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P37" s="1">
-        <v>5</v>
       </c>
       <c r="Q37" s="1">
         <v>5</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="1">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S37" s="6">
+      <c r="T37" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T37" s="6">
+      <c r="U37" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>0</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="Y37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="AA37" s="1">
         <v>2009</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AB37" s="1">
         <v>11</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AC37" s="1">
         <v>6</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD37" s="5" t="s">
+      <c r="AE37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE37" s="1" t="s">
+      <c r="AF37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
+      <c r="AH37" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="1" t="s">
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM37" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1" t="s">
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
-      <c r="AU37" s="1" t="s">
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV37" s="1" t="s">
+      <c r="AW37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AW37" s="1" t="s">
+      <c r="AX37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX37" s="1" t="s">
+      <c r="AY37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -7058,128 +7254,133 @@
       <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="1">
         <v>2013</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>10</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>7</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>2009</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>11</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>6</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="N38" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P38" s="1">
-        <v>5</v>
       </c>
       <c r="Q38" s="1">
         <v>5</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="1">
+        <v>5</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S38" s="6">
+      <c r="T38" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T38" s="6">
+      <c r="U38" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>0</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="Y38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AA38" s="1">
         <v>2009</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AB38" s="1">
         <v>11</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AC38" s="1">
         <v>6</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AE38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE38" s="1" t="s">
+      <c r="AF38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-      <c r="AK38" s="1" t="s">
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL38" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1" t="s">
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
-      <c r="AU38" s="1" t="s">
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV38" s="1" t="s">
+      <c r="AW38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AW38" s="1" t="s">
+      <c r="AX38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX38" s="1" t="s">
+      <c r="AY38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -7189,128 +7390,133 @@
       <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1">
         <v>2013</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>10</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>7</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>2009</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>11</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>6</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="N39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P39" s="1">
-        <v>5</v>
       </c>
       <c r="Q39" s="1">
         <v>5</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" s="1">
+        <v>5</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S39" s="6">
+      <c r="T39" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T39" s="6">
+      <c r="U39" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>0</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="Y39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AA39" s="1">
         <v>2009</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>11</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>6</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD39" s="5" t="s">
+      <c r="AE39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE39" s="1" t="s">
+      <c r="AF39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
+      <c r="AH39" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-      <c r="AK39" s="1" t="s">
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1" t="s">
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
-      <c r="AU39" s="1" t="s">
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV39" s="1" t="s">
+      <c r="AW39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AW39" s="1" t="s">
+      <c r="AX39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX39" s="1" t="s">
+      <c r="AY39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -7320,128 +7526,133 @@
       <c r="C40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1">
         <v>2013</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>10</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>7</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>2009</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>11</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>6</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="N40" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P40" s="1">
-        <v>5</v>
       </c>
       <c r="Q40" s="1">
         <v>5</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="1">
+        <v>5</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="6">
+      <c r="T40" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T40" s="6">
+      <c r="U40" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>0</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="Y40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AA40" s="1">
         <v>2009</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AB40" s="1">
         <v>11</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AC40" s="1">
         <v>6</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD40" s="5" t="s">
+      <c r="AE40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE40" s="1" t="s">
+      <c r="AF40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
+      <c r="AH40" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-      <c r="AK40" s="1" t="s">
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM40" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1" t="s">
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
-      <c r="AU40" s="1" t="s">
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV40" s="1" t="s">
+      <c r="AW40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AW40" s="1" t="s">
+      <c r="AX40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX40" s="1" t="s">
+      <c r="AY40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -7451,128 +7662,133 @@
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1">
         <v>2013</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>7</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>2009</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>11</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>6</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="N41" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="1"/>
+      <c r="P41" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P41" s="1">
-        <v>5</v>
       </c>
       <c r="Q41" s="1">
         <v>5</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="1">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S41" s="6">
+      <c r="T41" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T41" s="6">
+      <c r="U41" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>0</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="Y41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AA41" s="1">
         <v>2009</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>11</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AC41" s="1">
         <v>6</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD41" s="5" t="s">
+      <c r="AE41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE41" s="1" t="s">
+      <c r="AF41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
+      <c r="AH41" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-      <c r="AK41" s="1" t="s">
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL41" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM41" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1" t="s">
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
-      <c r="AU41" s="1" t="s">
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV41" s="1" t="s">
+      <c r="AW41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AW41" s="1" t="s">
+      <c r="AX41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX41" s="1" t="s">
+      <c r="AY41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -7582,128 +7798,133 @@
       <c r="C42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1">
         <v>2013</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>10</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>7</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>2009</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>11</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>6</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="N42" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P42" s="1">
-        <v>5</v>
       </c>
       <c r="Q42" s="1">
         <v>5</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="1">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S42" s="6">
+      <c r="T42" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T42" s="6">
+      <c r="U42" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>0</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="Y42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Z42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="AA42" s="1">
         <v>2009</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>11</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>6</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD42" s="5" t="s">
+      <c r="AE42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE42" s="1" t="s">
+      <c r="AF42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
+      <c r="AH42" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
-      <c r="AK42" s="1" t="s">
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL42" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM42" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1" t="s">
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
-      <c r="AU42" s="1" t="s">
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV42" s="1" t="s">
+      <c r="AW42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AW42" s="1" t="s">
+      <c r="AX42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX42" s="1" t="s">
+      <c r="AY42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -7713,128 +7934,133 @@
       <c r="C43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1">
         <v>2013</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>10</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>7</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>2009</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>11</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>6</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="N43" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="1"/>
+      <c r="P43" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P43" s="1">
-        <v>5</v>
       </c>
       <c r="Q43" s="1">
         <v>5</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="1">
+        <v>5</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S43" s="6">
+      <c r="T43" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T43" s="6">
+      <c r="U43" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U43" s="1">
+      <c r="V43" s="1">
         <v>0</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="Y43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Z43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="AA43" s="1">
         <v>2009</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>11</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>6</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="5" t="s">
+      <c r="AE43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE43" s="1" t="s">
+      <c r="AF43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
+      <c r="AH43" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-      <c r="AK43" s="1" t="s">
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM43" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1" t="s">
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
-      <c r="AU43" s="1" t="s">
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV43" s="1" t="s">
+      <c r="AW43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW43" s="1" t="s">
+      <c r="AX43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX43" s="1" t="s">
+      <c r="AY43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:51">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -7844,128 +8070,133 @@
       <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1">
         <v>2013</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>7</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>2009</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>11</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>6</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="N44" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P44" s="1">
-        <v>5</v>
       </c>
       <c r="Q44" s="1">
         <v>5</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" s="1">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S44" s="6">
+      <c r="T44" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T44" s="6">
+      <c r="U44" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U44" s="1">
+      <c r="V44" s="1">
         <v>0</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="Y44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Z44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="AA44" s="1">
         <v>2009</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>11</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>6</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD44" s="5" t="s">
+      <c r="AE44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE44" s="1" t="s">
+      <c r="AF44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
+      <c r="AH44" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
-      <c r="AK44" s="1" t="s">
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL44" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM44" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1" t="s">
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
-      <c r="AU44" s="1" t="s">
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV44" s="1" t="s">
+      <c r="AW44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AW44" s="1" t="s">
+      <c r="AX44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX44" s="1" t="s">
+      <c r="AY44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:51">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -7975,124 +8206,129 @@
       <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="1">
         <v>2013</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>10</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>7</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>2009</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>11</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>6</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="N45" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="1"/>
+      <c r="P45" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="P45" s="1">
-        <v>5</v>
       </c>
       <c r="Q45" s="1">
         <v>5</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R45" s="1">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="6">
+      <c r="T45" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="T45" s="6">
+      <c r="U45" s="6">
         <v>113.8202</v>
       </c>
-      <c r="U45" s="1">
+      <c r="V45" s="1">
         <v>0</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="Y45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Z45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AA45" s="1">
         <v>2009</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>11</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>6</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD45" s="5" t="s">
+      <c r="AE45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AE45" s="1" t="s">
+      <c r="AF45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
+      <c r="AH45" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-      <c r="AK45" s="1" t="s">
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AL45" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AM45" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AN45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1" t="s">
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
-      <c r="AU45" s="1" t="s">
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV45" s="1" t="s">
+      <c r="AW45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AW45" s="1" t="s">
+      <c r="AX45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX45" s="1" t="s">
+      <c r="AY45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8108,7 +8344,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G45</xm:sqref>
+          <xm:sqref>H2:H45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8120,19 +8356,19 @@
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$26</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L45</xm:sqref>
+          <xm:sqref>M2:M45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$G$2:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M45</xm:sqref>
+          <xm:sqref>N2:N45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$I$2:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2:AN45</xm:sqref>
+          <xm:sqref>AO2:AO45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
+++ b/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,30 +269,6 @@
           <t xml:space="preserve">
 Taxonomic information can be added algorithmically from OBIS or NCBI later
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eric Crandall:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Taxonomic information can be added algorithmically from OBIS or NCBI late</t>
         </r>
       </text>
     </comment>
@@ -344,7 +320,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eric Crandall:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Taxonomic information can be added algorithmically from OBIS or NCBI late</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="241">
   <si>
     <t>JF717899</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1271,6 +1271,9 @@
   </si>
   <si>
     <t>Chordata</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -2210,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY45"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y23" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2224,16 +2227,17 @@
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="23.1640625" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" customWidth="1"/>
-    <col min="42" max="42" width="12.33203125" customWidth="1"/>
-    <col min="48" max="49" width="11.5" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" customWidth="1"/>
-    <col min="52" max="16384" width="10.83203125" style="17"/>
+    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" customWidth="1"/>
+    <col min="49" max="50" width="11.5" customWidth="1"/>
+    <col min="51" max="51" width="15.6640625" customWidth="1"/>
+    <col min="53" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="16" customFormat="1">
+    <row r="1" spans="1:52" s="16" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>142</v>
       </c>
@@ -2286,109 +2290,112 @@
         <v>157</v>
       </c>
       <c r="R1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -2438,94 +2445,95 @@
       <c r="Q2" s="1">
         <v>3</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1">
         <v>3</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="6">
-        <f t="shared" ref="T2:T16" si="0">-1*(23+(26.718/60))</f>
+      <c r="U2" s="6">
+        <f t="shared" ref="U2:U16" si="0">-1*(23+(26.718/60))</f>
         <v>-23.4453</v>
       </c>
-      <c r="U2" s="6">
-        <f t="shared" ref="U2:U16" si="1">151+(55.53/60)</f>
+      <c r="V2" s="6">
+        <f t="shared" ref="V2:V16" si="1">151+(55.53/60)</f>
         <v>151.9255</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>2008</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>11</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>17</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -2575,94 +2583,95 @@
       <c r="Q3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>2008</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>11</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>17</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1" t="s">
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -2712,94 +2721,95 @@
       <c r="Q4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>2008</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>11</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>17</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1" t="s">
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -2849,94 +2859,95 @@
       <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1">
         <v>3</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>0</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>2008</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>11</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>17</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AL5" s="1" t="s">
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1" t="s">
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
-      <c r="AV5" s="1" t="s">
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
         <v>234</v>
       </c>
@@ -2986,94 +2997,95 @@
       <c r="Q6" s="1">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>0</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>2008</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>11</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>17</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
-      <c r="AL6" s="1" t="s">
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1" t="s">
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="1" t="s">
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
         <v>235</v>
       </c>
@@ -3123,94 +3135,95 @@
       <c r="Q7" s="1">
         <v>3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1">
         <v>3</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>2008</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>11</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>17</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AF7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1" t="s">
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="1" t="s">
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -3260,94 +3273,95 @@
       <c r="Q8" s="1">
         <v>3</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1">
         <v>3</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>2008</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>11</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>17</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AF8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="1" t="s">
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1" t="s">
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
-      <c r="AV8" s="1" t="s">
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -3397,94 +3411,95 @@
       <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
         <v>3</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>2008</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>11</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>17</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AF9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1" t="s">
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="1" t="s">
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1" t="s">
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
-      <c r="AV9" s="1" t="s">
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3534,94 +3549,95 @@
       <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>2008</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>11</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>17</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AF10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="1" t="s">
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1" t="s">
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
-      <c r="AV10" s="1" t="s">
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AY10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3671,94 +3687,95 @@
       <c r="Q11" s="1">
         <v>3</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="6">
+      <c r="U11" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>2008</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>11</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>17</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AF11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1" t="s">
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="1" t="s">
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1" t="s">
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1" t="s">
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -3808,94 +3825,95 @@
       <c r="Q12" s="1">
         <v>3</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
         <v>3</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="6">
+      <c r="U12" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U12" s="6">
+      <c r="V12" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>2008</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>11</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>17</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AF12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1" t="s">
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="1" t="s">
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1" t="s">
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
-      <c r="AV12" s="1" t="s">
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AX12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AX12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY12" s="1" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -3945,94 +3963,95 @@
       <c r="Q13" s="1">
         <v>3</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
         <v>3</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>0</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>2008</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>11</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>17</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1" t="s">
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1" t="s">
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1" t="s">
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
-      <c r="AV13" s="1" t="s">
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW13" s="1" t="s">
+      <c r="AX13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -4082,94 +4101,95 @@
       <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
         <v>3</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T14" s="6">
+      <c r="U14" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>2008</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <v>11</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>17</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AF14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1" t="s">
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="1" t="s">
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1" t="s">
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
-      <c r="AV14" s="1" t="s">
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4219,94 +4239,95 @@
       <c r="Q15" s="1">
         <v>3</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1">
         <v>3</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>2008</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>11</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>17</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AF15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1" t="s">
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1" t="s">
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
-      <c r="AV15" s="1" t="s">
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW15" s="1" t="s">
+      <c r="AX15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AX15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
         <v>122</v>
       </c>
@@ -4356,94 +4377,95 @@
       <c r="Q16" s="1">
         <v>3</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1">
         <v>3</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="6">
         <f t="shared" si="0"/>
         <v>-23.4453</v>
       </c>
-      <c r="U16" s="6">
+      <c r="V16" s="6">
         <f t="shared" si="1"/>
         <v>151.9255</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>2008</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>11</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>17</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AF16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1" t="s">
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1" t="s">
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
-      <c r="AV16" s="1" t="s">
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -4491,90 +4513,91 @@
         <v>93</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="1" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>0</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>2009</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>4</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>13</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AF17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1" t="s">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
-      <c r="AL17" s="1" t="s">
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN17" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1" t="s">
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
-      <c r="AV17" s="1" t="s">
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AX17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX17" s="1" t="s">
+      <c r="AY17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY17" s="1" t="s">
+      <c r="AZ17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -4622,90 +4645,91 @@
         <v>93</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="1" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>2009</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>4</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>13</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AF18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1" t="s">
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="1" t="s">
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN18" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1" t="s">
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
-      <c r="AV18" s="1" t="s">
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW18" s="1" t="s">
+      <c r="AX18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AX18" s="1" t="s">
+      <c r="AY18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY18" s="1" t="s">
+      <c r="AZ18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -4753,90 +4777,91 @@
         <v>93</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="1" t="s">
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T19" s="6">
+      <c r="U19" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>0</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>2009</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>4</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>13</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AF19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1" t="s">
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
-      <c r="AL19" s="1" t="s">
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN19" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1" t="s">
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="1" t="s">
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW19" s="1" t="s">
+      <c r="AX19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AX19" s="1" t="s">
+      <c r="AY19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY19" s="1" t="s">
+      <c r="AZ19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -4884,90 +4909,91 @@
         <v>93</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="1" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U20" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>2009</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>4</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>13</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AF20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AG20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1" t="s">
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-      <c r="AL20" s="1" t="s">
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1" t="s">
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
-      <c r="AV20" s="1" t="s">
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW20" s="1" t="s">
+      <c r="AX20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY20" s="1" t="s">
+      <c r="AZ20" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -5015,90 +5041,91 @@
         <v>93</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="1" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U21" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>0</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>2009</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>4</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>13</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AF21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1" t="s">
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="1" t="s">
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN21" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1" t="s">
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
-      <c r="AV21" s="1" t="s">
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW21" s="1" t="s">
+      <c r="AX21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AX21" s="1" t="s">
+      <c r="AY21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY21" s="1" t="s">
+      <c r="AZ21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -5146,90 +5173,91 @@
         <v>93</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="1" t="s">
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U22" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>2009</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>13</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AF22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1" t="s">
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1" t="s">
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN22" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1" t="s">
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="1" t="s">
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW22" s="1" t="s">
+      <c r="AX22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX22" s="1" t="s">
+      <c r="AY22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY22" s="1" t="s">
+      <c r="AZ22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -5277,90 +5305,91 @@
         <v>93</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="1" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T23" s="6">
+      <c r="U23" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>0</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>2009</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>4</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>13</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AF23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AG23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="1" t="s">
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1" t="s">
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
-      <c r="AV23" s="1" t="s">
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW23" s="1" t="s">
+      <c r="AX23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AX23" s="1" t="s">
+      <c r="AY23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY23" s="1" t="s">
+      <c r="AZ23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -5408,90 +5437,91 @@
         <v>93</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="1" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="6">
+      <c r="U24" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>2009</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>4</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>13</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AF24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AG24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1" t="s">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
-      <c r="AL24" s="1" t="s">
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN24" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1" t="s">
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
-      <c r="AV24" s="1" t="s">
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW24" s="1" t="s">
+      <c r="AX24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AX24" s="1" t="s">
+      <c r="AY24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY24" s="1" t="s">
+      <c r="AZ24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -5539,90 +5569,91 @@
         <v>93</v>
       </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="1" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>2009</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>4</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>13</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AF25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AG25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1" t="s">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
-      <c r="AL25" s="1" t="s">
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1" t="s">
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
-      <c r="AV25" s="1" t="s">
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW25" s="1" t="s">
+      <c r="AX25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AX25" s="1" t="s">
+      <c r="AY25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY25" s="1" t="s">
+      <c r="AZ25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -5670,90 +5701,91 @@
         <v>93</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="1" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T26" s="6">
+      <c r="U26" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>0</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Y26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>2009</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>4</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <v>13</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AF26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AG26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1" t="s">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
-      <c r="AL26" s="1" t="s">
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN26" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1" t="s">
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
-      <c r="AV26" s="1" t="s">
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW26" s="1" t="s">
+      <c r="AX26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AX26" s="1" t="s">
+      <c r="AY26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY26" s="1" t="s">
+      <c r="AZ26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -5801,90 +5833,91 @@
         <v>93</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="1" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="6">
         <v>-14.676416666666666</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <v>145.44696666666667</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>0</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>2009</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>4</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>13</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AE27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AF27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AG27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1" t="s">
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
-      <c r="AL27" s="1" t="s">
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN27" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1" t="s">
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="1" t="s">
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW27" s="1" t="s">
+      <c r="AX27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AX27" s="1" t="s">
+      <c r="AY27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY27" s="1" t="s">
+      <c r="AZ27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
@@ -5934,93 +5967,94 @@
       <c r="Q28" s="1">
         <v>5</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1">
         <v>5</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="6">
-        <f t="shared" ref="T28" si="2">-1*(Q28+(R28/60))</f>
+      <c r="U28" s="6">
+        <f t="shared" ref="U28" si="2">-1*(Q28+(S28/60))</f>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U28" s="6">
+      <c r="V28" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>0</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>2009</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>11</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>6</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AF28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AG28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1" t="s">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
-      <c r="AL28" s="1" t="s">
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN28" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1" t="s">
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
-      <c r="AV28" s="1" t="s">
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW28" s="1" t="s">
+      <c r="AX28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AX28" s="1" t="s">
+      <c r="AY28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY28" s="1" t="s">
+      <c r="AZ28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -6070,93 +6104,94 @@
       <c r="Q29" s="1">
         <v>5</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1">
         <v>5</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T29" s="6">
-        <f t="shared" ref="T29:T45" si="3">-1*(Q29+(R29/60))</f>
+      <c r="U29" s="6">
+        <f t="shared" ref="U29:U45" si="3">-1*(Q29+(S29/60))</f>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U29" s="6">
+      <c r="V29" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>0</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>2009</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>11</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AD29" s="1">
         <v>6</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AE29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AF29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF29" s="1" t="s">
+      <c r="AG29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1" t="s">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
-      <c r="AL29" s="1" t="s">
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN29" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1" t="s">
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
-      <c r="AV29" s="1" t="s">
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AX29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AX29" s="1" t="s">
+      <c r="AY29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY29" s="1" t="s">
+      <c r="AZ29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -6206,93 +6241,94 @@
       <c r="Q30" s="1">
         <v>5</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1">
         <v>5</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U30" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>0</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>2009</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>11</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <v>6</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AE30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AF30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF30" s="1" t="s">
+      <c r="AG30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1" t="s">
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="1" t="s">
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN30" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1" t="s">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
-      <c r="AV30" s="1" t="s">
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW30" s="1" t="s">
+      <c r="AX30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AX30" s="1" t="s">
+      <c r="AY30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY30" s="1" t="s">
+      <c r="AZ30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -6342,93 +6378,94 @@
       <c r="Q31" s="1">
         <v>5</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1">
         <v>5</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T31" s="6">
+      <c r="U31" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U31" s="6">
+      <c r="V31" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>0</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>2009</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>11</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <v>6</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AF31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1" t="s">
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="1" t="s">
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN31" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1" t="s">
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
-      <c r="AV31" s="1" t="s">
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -6478,93 +6515,94 @@
       <c r="Q32" s="1">
         <v>5</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1">
         <v>5</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="6">
+      <c r="U32" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U32" s="6">
+      <c r="V32" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>0</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>2009</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <v>11</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <v>6</v>
       </c>
-      <c r="AD32" s="1" t="s">
+      <c r="AE32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AF32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF32" s="1" t="s">
+      <c r="AG32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1" t="s">
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
-      <c r="AL32" s="1" t="s">
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM32" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN32" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1" t="s">
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
-      <c r="AV32" s="1" t="s">
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW32" s="1" t="s">
+      <c r="AX32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AX32" s="1" t="s">
+      <c r="AY32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY32" s="1" t="s">
+      <c r="AZ32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -6614,93 +6652,94 @@
       <c r="Q33" s="1">
         <v>5</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1">
         <v>5</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T33" s="6">
+      <c r="U33" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U33" s="6">
+      <c r="V33" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>0</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="Y33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>2009</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AC33" s="1">
         <v>11</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AD33" s="1">
         <v>6</v>
       </c>
-      <c r="AD33" s="1" t="s">
+      <c r="AE33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AF33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF33" s="1" t="s">
+      <c r="AG33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1" t="s">
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
-      <c r="AL33" s="1" t="s">
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN33" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1" t="s">
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="1" t="s">
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW33" s="1" t="s">
+      <c r="AX33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AX33" s="1" t="s">
+      <c r="AY33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY33" s="1" t="s">
+      <c r="AZ33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -6750,93 +6789,94 @@
       <c r="Q34" s="1">
         <v>5</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1">
         <v>5</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T34" s="6">
+      <c r="U34" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U34" s="6">
+      <c r="V34" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>0</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="Y34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AB34" s="1">
         <v>2009</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AC34" s="1">
         <v>11</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AD34" s="1">
         <v>6</v>
       </c>
-      <c r="AD34" s="1" t="s">
+      <c r="AE34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AF34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF34" s="1" t="s">
+      <c r="AG34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1" t="s">
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
-      <c r="AL34" s="1" t="s">
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM34" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN34" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1" t="s">
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
-      <c r="AV34" s="1" t="s">
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW34" s="1" t="s">
+      <c r="AX34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AX34" s="1" t="s">
+      <c r="AY34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY34" s="1" t="s">
+      <c r="AZ34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -6886,93 +6926,94 @@
       <c r="Q35" s="1">
         <v>5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1">
         <v>5</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T35" s="6">
+      <c r="U35" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U35" s="6">
+      <c r="V35" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>0</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="Y35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AB35" s="1">
         <v>2009</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <v>11</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AD35" s="1">
         <v>6</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AE35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE35" s="5" t="s">
+      <c r="AF35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF35" s="1" t="s">
+      <c r="AG35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1" t="s">
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
-      <c r="AL35" s="1" t="s">
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM35" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN35" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1" t="s">
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
-      <c r="AV35" s="1" t="s">
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW35" s="1" t="s">
+      <c r="AX35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AX35" s="1" t="s">
+      <c r="AY35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY35" s="1" t="s">
+      <c r="AZ35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -7022,93 +7063,94 @@
       <c r="Q36" s="1">
         <v>5</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1">
         <v>5</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T36" s="6">
+      <c r="U36" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U36" s="6">
+      <c r="V36" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>0</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="Y36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AB36" s="1">
         <v>2009</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AC36" s="1">
         <v>11</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AD36" s="1">
         <v>6</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AF36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AG36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1" t="s">
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
-      <c r="AL36" s="1" t="s">
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN36" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1" t="s">
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
-      <c r="AV36" s="1" t="s">
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW36" s="1" t="s">
+      <c r="AX36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AX36" s="1" t="s">
+      <c r="AY36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY36" s="1" t="s">
+      <c r="AZ36" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -7158,93 +7200,94 @@
       <c r="Q37" s="1">
         <v>5</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1">
         <v>5</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T37" s="6">
+      <c r="U37" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U37" s="6">
+      <c r="V37" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>0</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="Y37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AB37" s="1">
         <v>2009</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AC37" s="1">
         <v>11</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AD37" s="1">
         <v>6</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AF37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF37" s="1" t="s">
+      <c r="AG37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1" t="s">
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="1" t="s">
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN37" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1" t="s">
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
-      <c r="AV37" s="1" t="s">
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW37" s="1" t="s">
+      <c r="AX37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AX37" s="1" t="s">
+      <c r="AY37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY37" s="1" t="s">
+      <c r="AZ37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -7294,93 +7337,94 @@
       <c r="Q38" s="1">
         <v>5</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1">
         <v>5</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T38" s="6">
+      <c r="U38" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U38" s="6">
+      <c r="V38" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>0</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="Y38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AB38" s="1">
         <v>2009</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AC38" s="1">
         <v>11</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AD38" s="1">
         <v>6</v>
       </c>
-      <c r="AD38" s="1" t="s">
+      <c r="AE38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AF38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF38" s="1" t="s">
+      <c r="AG38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1" t="s">
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="1" t="s">
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM38" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1" t="s">
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
-      <c r="AV38" s="1" t="s">
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW38" s="1" t="s">
+      <c r="AX38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AX38" s="1" t="s">
+      <c r="AY38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY38" s="1" t="s">
+      <c r="AZ38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -7430,93 +7474,94 @@
       <c r="Q39" s="1">
         <v>5</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="1"/>
+      <c r="S39" s="1">
         <v>5</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T39" s="6">
+      <c r="U39" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U39" s="6">
+      <c r="V39" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="Y39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AA39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>2009</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>11</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>6</v>
       </c>
-      <c r="AD39" s="1" t="s">
+      <c r="AE39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE39" s="5" t="s">
+      <c r="AF39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF39" s="1" t="s">
+      <c r="AG39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1" t="s">
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="1" t="s">
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1" t="s">
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
-      <c r="AV39" s="1" t="s">
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW39" s="1" t="s">
+      <c r="AX39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AX39" s="1" t="s">
+      <c r="AY39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY39" s="1" t="s">
+      <c r="AZ39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -7566,93 +7611,94 @@
       <c r="Q40" s="1">
         <v>5</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1">
         <v>5</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T40" s="6">
+      <c r="U40" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U40" s="6">
+      <c r="V40" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>0</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="Y40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AA40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AB40" s="1">
         <v>2009</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AC40" s="1">
         <v>11</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AD40" s="1">
         <v>6</v>
       </c>
-      <c r="AD40" s="1" t="s">
+      <c r="AE40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE40" s="5" t="s">
+      <c r="AF40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF40" s="1" t="s">
+      <c r="AG40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1" t="s">
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
-      <c r="AL40" s="1" t="s">
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM40" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN40" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1" t="s">
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
-      <c r="AV40" s="1" t="s">
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW40" s="1" t="s">
+      <c r="AX40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AX40" s="1" t="s">
+      <c r="AY40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY40" s="1" t="s">
+      <c r="AZ40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -7702,93 +7748,94 @@
       <c r="Q41" s="1">
         <v>5</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="1"/>
+      <c r="S41" s="1">
         <v>5</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T41" s="6">
+      <c r="U41" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U41" s="6">
+      <c r="V41" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>0</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="Y41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AA41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>2009</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AC41" s="1">
         <v>11</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AD41" s="1">
         <v>6</v>
       </c>
-      <c r="AD41" s="1" t="s">
+      <c r="AE41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE41" s="5" t="s">
+      <c r="AF41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF41" s="1" t="s">
+      <c r="AG41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1" t="s">
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="1" t="s">
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM41" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN41" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1" t="s">
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
-      <c r="AV41" s="1" t="s">
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW41" s="1" t="s">
+      <c r="AX41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AX41" s="1" t="s">
+      <c r="AY41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY41" s="1" t="s">
+      <c r="AZ41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -7838,93 +7885,94 @@
       <c r="Q42" s="1">
         <v>5</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1">
         <v>5</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T42" s="6">
+      <c r="U42" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U42" s="6">
+      <c r="V42" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>0</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="Y42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Z42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="AA42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>2009</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>11</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>6</v>
       </c>
-      <c r="AD42" s="1" t="s">
+      <c r="AE42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE42" s="5" t="s">
+      <c r="AF42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF42" s="1" t="s">
+      <c r="AG42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1" t="s">
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="1" t="s">
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM42" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN42" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1" t="s">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
-      <c r="AV42" s="1" t="s">
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW42" s="1" t="s">
+      <c r="AX42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AX42" s="1" t="s">
+      <c r="AY42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY42" s="1" t="s">
+      <c r="AZ42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -7974,93 +8022,94 @@
       <c r="Q43" s="1">
         <v>5</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1">
         <v>5</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T43" s="6">
+      <c r="U43" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U43" s="6">
+      <c r="V43" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>0</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="Y43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Z43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AA43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>2009</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>11</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>6</v>
       </c>
-      <c r="AD43" s="1" t="s">
+      <c r="AE43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE43" s="5" t="s">
+      <c r="AF43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="1" t="s">
+      <c r="AG43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1" t="s">
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="1" t="s">
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN43" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1" t="s">
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
-      <c r="AV43" s="1" t="s">
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW43" s="1" t="s">
+      <c r="AX43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AX43" s="1" t="s">
+      <c r="AY43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY43" s="1" t="s">
+      <c r="AZ43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -8110,93 +8159,94 @@
       <c r="Q44" s="1">
         <v>5</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1">
         <v>5</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T44" s="6">
+      <c r="U44" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U44" s="6">
+      <c r="V44" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>0</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="Y44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Z44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AA44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>2009</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>11</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AD44" s="1">
         <v>6</v>
       </c>
-      <c r="AD44" s="1" t="s">
+      <c r="AE44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE44" s="5" t="s">
+      <c r="AF44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF44" s="1" t="s">
+      <c r="AG44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1" t="s">
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
-      <c r="AL44" s="1" t="s">
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM44" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN44" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1" t="s">
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
-      <c r="AV44" s="1" t="s">
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW44" s="1" t="s">
+      <c r="AX44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX44" s="1" t="s">
+      <c r="AY44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY44" s="1" t="s">
+      <c r="AZ44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -8246,89 +8296,90 @@
       <c r="Q45" s="1">
         <v>5</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1">
         <v>5</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T45" s="6">
+      <c r="U45" s="6">
         <f t="shared" si="3"/>
         <v>-5.083333333333333</v>
       </c>
-      <c r="U45" s="6">
+      <c r="V45" s="6">
         <v>113.8202</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>0</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="Y45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Z45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AA45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>2009</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>11</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>6</v>
       </c>
-      <c r="AD45" s="1" t="s">
+      <c r="AE45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="5" t="s">
+      <c r="AF45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF45" s="1" t="s">
+      <c r="AG45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1" t="s">
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
-      <c r="AL45" s="1" t="s">
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AM45" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AN45" s="1" t="s">
         <v>196</v>
       </c>
       <c r="AO45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1" t="s">
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
-      <c r="AV45" s="1" t="s">
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW45" s="1" t="s">
+      <c r="AX45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AX45" s="1" t="s">
+      <c r="AY45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY45" s="1" t="s">
+      <c r="AZ45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8368,7 +8419,7 @@
           <x14:formula1>
             <xm:f>Lists!$I$2:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AO2:AO45</xm:sqref>
+          <xm:sqref>AP2:AP45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
+++ b/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -916,9 +916,6 @@
     <t xml:space="preserve">HER_97 </t>
   </si>
   <si>
-    <t xml:space="preserve">HER_98 </t>
-  </si>
-  <si>
     <t xml:space="preserve">HER_99 </t>
   </si>
   <si>
@@ -1274,6 +1271,9 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>HER_98</t>
   </si>
 </sst>
 </file>
@@ -1906,17 +1906,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>104</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>106</v>
@@ -1940,22 +1940,22 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>107</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
@@ -1971,17 +1971,17 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>90</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
@@ -2016,12 +2016,12 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2029,27 +2029,27 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -2057,147 +2057,147 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2239,160 +2239,160 @@
   <sheetData>
     <row r="1" spans="1:52" s="16" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:52">
@@ -2400,7 +2400,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>103</v>
@@ -2430,13 +2430,13 @@
         <v>17</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>95</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -2504,10 +2504,10 @@
         <v>46</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>101</v>
@@ -2538,7 +2538,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>103</v>
@@ -2571,10 +2571,10 @@
         <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>95</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -2642,10 +2642,10 @@
         <v>46</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>101</v>
@@ -2676,7 +2676,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>103</v>
@@ -2709,10 +2709,10 @@
         <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>95</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -2780,10 +2780,10 @@
         <v>46</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>101</v>
@@ -2814,7 +2814,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -2847,10 +2847,10 @@
         <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>95</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -2918,10 +2918,10 @@
         <v>46</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>101</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>103</v>
@@ -2985,10 +2985,10 @@
         <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>95</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -3056,10 +3056,10 @@
         <v>46</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>101</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>103</v>
@@ -3123,10 +3123,10 @@
         <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>95</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -3194,10 +3194,10 @@
         <v>46</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>101</v>
@@ -3228,7 +3228,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -3261,10 +3261,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>95</v>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -3332,10 +3332,10 @@
         <v>46</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>101</v>
@@ -3366,7 +3366,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>103</v>
@@ -3399,10 +3399,10 @@
         <v>49</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>95</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -3470,10 +3470,10 @@
         <v>46</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>101</v>
@@ -3504,7 +3504,7 @@
         <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>103</v>
@@ -3537,10 +3537,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>95</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3608,10 +3608,10 @@
         <v>46</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>101</v>
@@ -3642,7 +3642,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>103</v>
@@ -3675,10 +3675,10 @@
         <v>49</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>95</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -3746,10 +3746,10 @@
         <v>46</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>101</v>
@@ -3780,7 +3780,7 @@
         <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
@@ -3813,10 +3813,10 @@
         <v>49</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>95</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -3884,10 +3884,10 @@
         <v>46</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>101</v>
@@ -3918,7 +3918,7 @@
         <v>119</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>103</v>
@@ -3951,10 +3951,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>95</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -4022,10 +4022,10 @@
         <v>46</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>101</v>
@@ -4056,7 +4056,7 @@
         <v>120</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
@@ -4089,10 +4089,10 @@
         <v>49</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>95</v>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -4160,10 +4160,10 @@
         <v>46</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>101</v>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
@@ -4227,10 +4227,10 @@
         <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>95</v>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -4298,10 +4298,10 @@
         <v>46</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>101</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>103</v>
@@ -4365,10 +4365,10 @@
         <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>95</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -4436,10 +4436,10 @@
         <v>46</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>101</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
@@ -4503,10 +4503,10 @@
         <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>95</v>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -4568,10 +4568,10 @@
         <v>53</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>101</v>
@@ -4602,7 +4602,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>103</v>
@@ -4635,10 +4635,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>95</v>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -4700,10 +4700,10 @@
         <v>53</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>101</v>
@@ -4734,7 +4734,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>103</v>
@@ -4767,10 +4767,10 @@
         <v>50</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>95</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -4832,10 +4832,10 @@
         <v>53</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>101</v>
@@ -4866,7 +4866,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>103</v>
@@ -4899,10 +4899,10 @@
         <v>50</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>95</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -4964,10 +4964,10 @@
         <v>53</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>101</v>
@@ -4998,7 +4998,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>103</v>
@@ -5031,10 +5031,10 @@
         <v>50</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>95</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -5096,10 +5096,10 @@
         <v>53</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>101</v>
@@ -5130,7 +5130,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
@@ -5163,10 +5163,10 @@
         <v>50</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>95</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -5228,10 +5228,10 @@
         <v>53</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>101</v>
@@ -5262,7 +5262,7 @@
         <v>66</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>103</v>
@@ -5295,10 +5295,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>95</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -5360,10 +5360,10 @@
         <v>53</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>101</v>
@@ -5394,7 +5394,7 @@
         <v>67</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>103</v>
@@ -5427,10 +5427,10 @@
         <v>50</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>95</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -5492,10 +5492,10 @@
         <v>53</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>101</v>
@@ -5526,7 +5526,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>103</v>
@@ -5559,10 +5559,10 @@
         <v>50</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>95</v>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -5624,10 +5624,10 @@
         <v>53</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>101</v>
@@ -5658,7 +5658,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>103</v>
@@ -5691,10 +5691,10 @@
         <v>50</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>95</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -5756,10 +5756,10 @@
         <v>53</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>101</v>
@@ -5790,7 +5790,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>103</v>
@@ -5823,10 +5823,10 @@
         <v>50</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>95</v>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -5888,10 +5888,10 @@
         <v>53</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>101</v>
@@ -5922,7 +5922,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>103</v>
@@ -5958,7 +5958,7 @@
         <v>55</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>60</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -6025,10 +6025,10 @@
         <v>46</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>58</v>
@@ -6059,7 +6059,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
@@ -6095,7 +6095,7 @@
         <v>55</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>60</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -6162,10 +6162,10 @@
         <v>46</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>58</v>
@@ -6196,7 +6196,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>103</v>
@@ -6232,7 +6232,7 @@
         <v>55</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>60</v>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -6299,10 +6299,10 @@
         <v>46</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>58</v>
@@ -6333,7 +6333,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>103</v>
@@ -6369,7 +6369,7 @@
         <v>55</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>60</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -6436,10 +6436,10 @@
         <v>46</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>58</v>
@@ -6470,7 +6470,7 @@
         <v>75</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>103</v>
@@ -6506,7 +6506,7 @@
         <v>55</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>60</v>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -6573,10 +6573,10 @@
         <v>46</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>58</v>
@@ -6607,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>103</v>
@@ -6643,7 +6643,7 @@
         <v>55</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>60</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -6710,10 +6710,10 @@
         <v>46</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>58</v>
@@ -6744,7 +6744,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>103</v>
@@ -6780,7 +6780,7 @@
         <v>55</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -6847,10 +6847,10 @@
         <v>46</v>
       </c>
       <c r="AN34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP34" s="1" t="s">
         <v>58</v>
@@ -6881,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>103</v>
@@ -6917,7 +6917,7 @@
         <v>55</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>60</v>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -6984,10 +6984,10 @@
         <v>46</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>58</v>
@@ -7018,7 +7018,7 @@
         <v>79</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>103</v>
@@ -7054,7 +7054,7 @@
         <v>55</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>60</v>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -7121,10 +7121,10 @@
         <v>46</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP36" s="1" t="s">
         <v>58</v>
@@ -7155,7 +7155,7 @@
         <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>103</v>
@@ -7191,7 +7191,7 @@
         <v>55</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>60</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -7258,10 +7258,10 @@
         <v>46</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>58</v>
@@ -7292,7 +7292,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>103</v>
@@ -7328,7 +7328,7 @@
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>60</v>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -7395,10 +7395,10 @@
         <v>46</v>
       </c>
       <c r="AN38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>58</v>
@@ -7429,7 +7429,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>103</v>
@@ -7465,7 +7465,7 @@
         <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>60</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -7532,10 +7532,10 @@
         <v>46</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>58</v>
@@ -7566,7 +7566,7 @@
         <v>83</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>103</v>
@@ -7602,7 +7602,7 @@
         <v>55</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>60</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -7669,10 +7669,10 @@
         <v>46</v>
       </c>
       <c r="AN40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP40" s="1" t="s">
         <v>58</v>
@@ -7703,7 +7703,7 @@
         <v>84</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>103</v>
@@ -7739,7 +7739,7 @@
         <v>55</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1" t="s">
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>60</v>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -7806,10 +7806,10 @@
         <v>46</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>58</v>
@@ -7840,7 +7840,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>103</v>
@@ -7876,7 +7876,7 @@
         <v>55</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>60</v>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -7943,10 +7943,10 @@
         <v>46</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP42" s="1" t="s">
         <v>58</v>
@@ -7977,7 +7977,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>103</v>
@@ -8013,7 +8013,7 @@
         <v>55</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>60</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -8080,10 +8080,10 @@
         <v>46</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>58</v>
@@ -8114,7 +8114,7 @@
         <v>87</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>103</v>
@@ -8150,7 +8150,7 @@
         <v>55</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>60</v>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -8217,10 +8217,10 @@
         <v>46</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP44" s="1" t="s">
         <v>58</v>
@@ -8251,7 +8251,7 @@
         <v>88</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>103</v>
@@ -8287,7 +8287,7 @@
         <v>55</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>60</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -8354,10 +8354,10 @@
         <v>46</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP45" s="1" t="s">
         <v>58</v>
@@ -8451,51 +8451,51 @@
   <sheetData>
     <row r="1" spans="2:10" s="13" customFormat="1">
       <c r="B1" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("&lt;field&gt;",C2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;CAS&lt;/field&gt;</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("&lt;field&gt;",$E2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Red Sea and Gulf of Aden&lt;/field&gt;</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H13" si="0">CONCATENATE("&lt;field&gt;",$G2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Coral Reef&lt;/field&gt;</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="1">CONCATENATE("&lt;field&gt;",$I2,"&lt;/field&gt;")</f>
@@ -8504,31 +8504,31 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D12" si="2">CONCATENATE("&lt;field&gt;",C3,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;IBRC&lt;/field&gt;</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="3">CONCATENATE("&lt;field&gt;",$E3,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Somali/Arabian&lt;/field&gt;</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Intertidal&lt;/field&gt;</v>
       </c>
       <c r="I3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
@@ -8537,28 +8537,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;KAUST&lt;/field&gt;</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Western Indian Ocean&lt;/field&gt;</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Fouling&lt;/field&gt;</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -8567,28 +8567,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;ODU&lt;/field&gt;</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;West and South Indian Shelf&lt;/field&gt;</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Macroalgae&lt;/field&gt;</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
@@ -8597,28 +8597,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;StellenboschU&lt;/field&gt;</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Central Indian Ocean Islands&lt;/field&gt;</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Mangrove&lt;/field&gt;</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
@@ -8627,28 +8627,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;STRI&lt;/field&gt;</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Bay of Bengal&lt;/field&gt;</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Mud&lt;/field&gt;</v>
       </c>
       <c r="I7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
@@ -8657,21 +8657,21 @@
     </row>
     <row r="8" spans="2:10">
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;TAMU&lt;/field&gt;</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Andaman&lt;/field&gt;</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -8680,21 +8680,21 @@
     </row>
     <row r="9" spans="2:10">
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UCLA&lt;/field&gt;</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;South China Sea&lt;/field&gt;</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -8703,21 +8703,21 @@
     </row>
     <row r="10" spans="2:10">
       <c r="C10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UH&lt;/field&gt;</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Sunda Shelf&lt;/field&gt;</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -8726,21 +8726,21 @@
     </row>
     <row r="11" spans="2:10">
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UPMSI&lt;/field&gt;</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Java Transitional&lt;/field&gt;</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -8749,21 +8749,21 @@
     </row>
     <row r="12" spans="2:10">
       <c r="C12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UQ&lt;/field&gt;</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;South Kuroshio&lt;/field&gt;</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -8772,14 +8772,14 @@
     </row>
     <row r="13" spans="2:10">
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Tropical Northwestern Pacific&lt;/field&gt;</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="E15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="22" spans="5:6">
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="23" spans="5:6">
       <c r="E23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="25" spans="5:6">
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>

--- a/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
+++ b/trunk/sampledata/Apogon_indoPacificTemplate_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -799,10 +799,6 @@
     <t>NIN_976</t>
   </si>
   <si>
-    <t>UQ- Riginos</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>See list</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1274,6 +1270,9 @@
   </si>
   <si>
     <t>HER_98</t>
+  </si>
+  <si>
+    <t>UQ-Riginos</t>
   </si>
 </sst>
 </file>
@@ -1906,122 +1905,122 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2029,27 +2028,27 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -2057,147 +2056,147 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2232,181 +2231,182 @@
     <col min="22" max="22" width="15.1640625" style="12" customWidth="1"/>
     <col min="23" max="23" width="25.1640625" customWidth="1"/>
     <col min="43" max="43" width="12.33203125" customWidth="1"/>
-    <col min="49" max="50" width="11.5" customWidth="1"/>
+    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="50" max="50" width="11.5" customWidth="1"/>
     <col min="51" max="51" width="15.6640625" customWidth="1"/>
     <col min="53" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="16" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1">
         <v>2013</v>
@@ -2418,7 +2418,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I2" s="1">
         <v>2008</v>
@@ -2430,17 +2430,17 @@
         <v>17</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1">
         <v>3</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U2" s="6">
         <f t="shared" ref="U2:U16" si="0">-1*(23+(26.718/60))</f>
@@ -2464,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB2" s="1">
         <v>2008</v>
@@ -2485,17 +2485,17 @@
         <v>17</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -2504,17 +2504,17 @@
         <v>46</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1">
         <v>2013</v>
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I3" s="1">
         <v>2008</v>
@@ -2571,14 +2571,14 @@
         <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1">
         <v>3</v>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U3" s="6">
         <f t="shared" si="0"/>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB3" s="1">
         <v>2008</v>
@@ -2623,17 +2623,17 @@
         <v>17</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -2642,17 +2642,17 @@
         <v>46</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
@@ -2673,16 +2673,16 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1">
         <v>2013</v>
@@ -2694,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I4" s="1">
         <v>2008</v>
@@ -2709,14 +2709,14 @@
         <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
@@ -2726,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U4" s="6">
         <f t="shared" si="0"/>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB4" s="1">
         <v>2008</v>
@@ -2761,17 +2761,17 @@
         <v>17</v>
       </c>
       <c r="AE4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
@@ -2780,17 +2780,17 @@
         <v>46</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1">
         <v>2013</v>
@@ -2832,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I5" s="1">
         <v>2008</v>
@@ -2847,14 +2847,14 @@
         <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" s="6">
         <f t="shared" si="0"/>
@@ -2878,16 +2878,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB5" s="1">
         <v>2008</v>
@@ -2899,17 +2899,17 @@
         <v>17</v>
       </c>
       <c r="AE5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -2918,17 +2918,17 @@
         <v>46</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
@@ -2949,16 +2949,16 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1">
         <v>2013</v>
@@ -2970,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I6" s="1">
         <v>2008</v>
@@ -2985,14 +2985,14 @@
         <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U6" s="6">
         <f t="shared" si="0"/>
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB6" s="1">
         <v>2008</v>
@@ -3037,17 +3037,17 @@
         <v>17</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AG6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -3056,17 +3056,17 @@
         <v>46</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
@@ -3087,16 +3087,16 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1">
         <v>2013</v>
@@ -3108,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I7" s="17">
         <v>2008</v>
@@ -3123,14 +3123,14 @@
         <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="1">
         <v>3</v>
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U7" s="6">
         <f t="shared" si="0"/>
@@ -3154,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB7" s="1">
         <v>2008</v>
@@ -3175,17 +3175,17 @@
         <v>17</v>
       </c>
       <c r="AE7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AG7" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -3194,17 +3194,17 @@
         <v>46</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
@@ -3225,16 +3225,16 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1">
         <v>2013</v>
@@ -3246,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I8" s="1">
         <v>2008</v>
@@ -3261,14 +3261,14 @@
         <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="1">
         <v>3</v>
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" si="0"/>
@@ -3292,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB8" s="1">
         <v>2008</v>
@@ -3313,17 +3313,17 @@
         <v>17</v>
       </c>
       <c r="AE8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AG8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -3332,17 +3332,17 @@
         <v>46</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3363,16 +3363,16 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1">
         <v>2013</v>
@@ -3384,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I9" s="1">
         <v>2008</v>
@@ -3399,14 +3399,14 @@
         <v>49</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="1">
         <v>3</v>
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="0"/>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB9" s="1">
         <v>2008</v>
@@ -3451,17 +3451,17 @@
         <v>17</v>
       </c>
       <c r="AE9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AG9" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -3470,17 +3470,17 @@
         <v>46</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
@@ -3501,16 +3501,16 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1">
         <v>2013</v>
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I10" s="1">
         <v>2008</v>
@@ -3537,14 +3537,14 @@
         <v>49</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="1">
         <v>3</v>
@@ -3554,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="0"/>
@@ -3568,16 +3568,16 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB10" s="1">
         <v>2008</v>
@@ -3589,17 +3589,17 @@
         <v>17</v>
       </c>
       <c r="AE10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AG10" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3608,17 +3608,17 @@
         <v>46</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
@@ -3639,16 +3639,16 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1">
         <v>2013</v>
@@ -3660,7 +3660,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I11" s="1">
         <v>2008</v>
@@ -3675,14 +3675,14 @@
         <v>49</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="1">
         <v>3</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="0"/>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB11" s="1">
         <v>2008</v>
@@ -3727,17 +3727,17 @@
         <v>17</v>
       </c>
       <c r="AE11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AG11" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -3746,17 +3746,17 @@
         <v>46</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
@@ -3777,16 +3777,16 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1">
         <v>2013</v>
@@ -3798,7 +3798,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I12" s="1">
         <v>2008</v>
@@ -3813,14 +3813,14 @@
         <v>49</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="1">
         <v>3</v>
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="0"/>
@@ -3844,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB12" s="1">
         <v>2008</v>
@@ -3865,17 +3865,17 @@
         <v>17</v>
       </c>
       <c r="AE12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF12" s="5" t="s">
+      <c r="AG12" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -3884,17 +3884,17 @@
         <v>46</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
@@ -3915,16 +3915,16 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>2013</v>
@@ -3936,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I13" s="1">
         <v>2008</v>
@@ -3951,14 +3951,14 @@
         <v>49</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="1">
         <v>3</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="0"/>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB13" s="1">
         <v>2008</v>
@@ -4003,17 +4003,17 @@
         <v>17</v>
       </c>
       <c r="AE13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AG13" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -4022,17 +4022,17 @@
         <v>46</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
@@ -4053,16 +4053,16 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1">
         <v>2013</v>
@@ -4074,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I14" s="1">
         <v>2008</v>
@@ -4089,14 +4089,14 @@
         <v>49</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="1">
         <v>3</v>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="0"/>
@@ -4120,16 +4120,16 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB14" s="1">
         <v>2008</v>
@@ -4141,17 +4141,17 @@
         <v>17</v>
       </c>
       <c r="AE14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AG14" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -4160,17 +4160,17 @@
         <v>46</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
@@ -4191,16 +4191,16 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1">
         <v>2013</v>
@@ -4212,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I15" s="1">
         <v>2008</v>
@@ -4227,14 +4227,14 @@
         <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="1">
         <v>3</v>
@@ -4244,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="0"/>
@@ -4258,16 +4258,16 @@
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB15" s="1">
         <v>2008</v>
@@ -4279,17 +4279,17 @@
         <v>17</v>
       </c>
       <c r="AE15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AG15" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -4298,17 +4298,17 @@
         <v>46</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1">
         <v>2013</v>
@@ -4350,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I16" s="1">
         <v>2008</v>
@@ -4365,14 +4365,14 @@
         <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="1">
         <v>3</v>
@@ -4382,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="0"/>
@@ -4396,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AB16" s="1">
         <v>2008</v>
@@ -4417,17 +4417,17 @@
         <v>17</v>
       </c>
       <c r="AE16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF16" s="5" t="s">
+      <c r="AG16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -4436,17 +4436,17 @@
         <v>46</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
@@ -4467,16 +4467,16 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1">
         <v>2013</v>
@@ -4488,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I17" s="1">
         <v>2009</v>
@@ -4503,14 +4503,14 @@
         <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>51</v>
@@ -4549,17 +4549,17 @@
         <v>13</v>
       </c>
       <c r="AE17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AG17" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -4568,17 +4568,17 @@
         <v>53</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
@@ -4602,13 +4602,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1">
         <v>2013</v>
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I18" s="1">
         <v>2009</v>
@@ -4635,14 +4635,14 @@
         <v>50</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>51</v>
@@ -4681,17 +4681,17 @@
         <v>13</v>
       </c>
       <c r="AE18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF18" s="5" t="s">
+      <c r="AG18" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -4700,17 +4700,17 @@
         <v>53</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
@@ -4734,13 +4734,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1">
         <v>2013</v>
@@ -4752,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I19" s="1">
         <v>2009</v>
@@ -4767,14 +4767,14 @@
         <v>50</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>51</v>
@@ -4813,17 +4813,17 @@
         <v>13</v>
       </c>
       <c r="AE19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF19" s="5" t="s">
+      <c r="AG19" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -4832,17 +4832,17 @@
         <v>53</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
@@ -4866,13 +4866,13 @@
         <v>63</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1">
         <v>2013</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I20" s="1">
         <v>2009</v>
@@ -4899,14 +4899,14 @@
         <v>50</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>51</v>
@@ -4945,17 +4945,17 @@
         <v>13</v>
       </c>
       <c r="AE20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF20" s="5" t="s">
+      <c r="AG20" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -4964,17 +4964,17 @@
         <v>53</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
@@ -4998,13 +4998,13 @@
         <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1">
         <v>2013</v>
@@ -5016,7 +5016,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I21" s="1">
         <v>2009</v>
@@ -5031,14 +5031,14 @@
         <v>50</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -5056,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>51</v>
@@ -5077,17 +5077,17 @@
         <v>13</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AG21" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -5096,17 +5096,17 @@
         <v>53</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
@@ -5130,13 +5130,13 @@
         <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1">
         <v>2013</v>
@@ -5148,7 +5148,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I22" s="1">
         <v>2009</v>
@@ -5163,14 +5163,14 @@
         <v>50</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>51</v>
@@ -5209,17 +5209,17 @@
         <v>13</v>
       </c>
       <c r="AE22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AG22" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -5228,17 +5228,17 @@
         <v>53</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
@@ -5262,13 +5262,13 @@
         <v>66</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1">
         <v>2013</v>
@@ -5280,7 +5280,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I23" s="1">
         <v>2009</v>
@@ -5295,14 +5295,14 @@
         <v>50</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>51</v>
@@ -5341,17 +5341,17 @@
         <v>13</v>
       </c>
       <c r="AE23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AG23" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -5360,17 +5360,17 @@
         <v>53</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
@@ -5394,13 +5394,13 @@
         <v>67</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1">
         <v>2013</v>
@@ -5412,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I24" s="1">
         <v>2009</v>
@@ -5427,14 +5427,14 @@
         <v>50</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>51</v>
@@ -5473,17 +5473,17 @@
         <v>13</v>
       </c>
       <c r="AE24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AG24" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -5492,17 +5492,17 @@
         <v>53</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
@@ -5526,13 +5526,13 @@
         <v>68</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1">
         <v>2013</v>
@@ -5544,7 +5544,7 @@
         <v>7</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I25" s="1">
         <v>2009</v>
@@ -5559,14 +5559,14 @@
         <v>50</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>51</v>
@@ -5605,17 +5605,17 @@
         <v>13</v>
       </c>
       <c r="AE25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF25" s="5" t="s">
+      <c r="AG25" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -5624,17 +5624,17 @@
         <v>53</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
@@ -5658,13 +5658,13 @@
         <v>69</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1">
         <v>2013</v>
@@ -5676,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I26" s="1">
         <v>2009</v>
@@ -5691,14 +5691,14 @@
         <v>50</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -5716,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>51</v>
@@ -5737,17 +5737,17 @@
         <v>13</v>
       </c>
       <c r="AE26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AG26" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -5756,17 +5756,17 @@
         <v>53</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -5790,13 +5790,13 @@
         <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1">
         <v>2013</v>
@@ -5808,7 +5808,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I27" s="1">
         <v>2009</v>
@@ -5823,14 +5823,14 @@
         <v>50</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>51</v>
@@ -5869,17 +5869,17 @@
         <v>13</v>
       </c>
       <c r="AE27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF27" s="5" t="s">
+      <c r="AG27" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -5888,17 +5888,17 @@
         <v>53</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
@@ -5922,13 +5922,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1">
         <v>2013</v>
@@ -5940,7 +5940,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I28" s="1">
         <v>2009</v>
@@ -5958,11 +5958,11 @@
         <v>55</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="1">
         <v>5</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>60</v>
@@ -5994,7 +5994,7 @@
         <v>59</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB28" s="1">
         <v>2009</v>
@@ -6006,17 +6006,17 @@
         <v>6</v>
       </c>
       <c r="AE28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AG28" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -6025,17 +6025,17 @@
         <v>46</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
@@ -6059,13 +6059,13 @@
         <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1">
         <v>2013</v>
@@ -6077,7 +6077,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I29" s="1">
         <v>2009</v>
@@ -6095,11 +6095,11 @@
         <v>55</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="1">
         <v>5</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>60</v>
@@ -6131,7 +6131,7 @@
         <v>59</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB29" s="1">
         <v>2009</v>
@@ -6143,17 +6143,17 @@
         <v>6</v>
       </c>
       <c r="AE29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF29" s="5" t="s">
+      <c r="AG29" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -6162,17 +6162,17 @@
         <v>46</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -6196,13 +6196,13 @@
         <v>73</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1">
         <v>2013</v>
@@ -6214,7 +6214,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I30" s="1">
         <v>2009</v>
@@ -6232,11 +6232,11 @@
         <v>55</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q30" s="1">
         <v>5</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>60</v>
@@ -6268,7 +6268,7 @@
         <v>59</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB30" s="1">
         <v>2009</v>
@@ -6280,17 +6280,17 @@
         <v>6</v>
       </c>
       <c r="AE30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF30" s="5" t="s">
+      <c r="AG30" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -6299,17 +6299,17 @@
         <v>46</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
@@ -6333,13 +6333,13 @@
         <v>74</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1">
         <v>2013</v>
@@ -6351,7 +6351,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I31" s="1">
         <v>2009</v>
@@ -6369,11 +6369,11 @@
         <v>55</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="1">
         <v>5</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>60</v>
@@ -6405,7 +6405,7 @@
         <v>59</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB31" s="1">
         <v>2009</v>
@@ -6417,17 +6417,17 @@
         <v>6</v>
       </c>
       <c r="AE31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF31" s="5" t="s">
+      <c r="AG31" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -6436,17 +6436,17 @@
         <v>46</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
@@ -6470,13 +6470,13 @@
         <v>75</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1">
         <v>2013</v>
@@ -6488,7 +6488,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I32" s="1">
         <v>2009</v>
@@ -6506,11 +6506,11 @@
         <v>55</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q32" s="1">
         <v>5</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>60</v>
@@ -6542,7 +6542,7 @@
         <v>59</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB32" s="1">
         <v>2009</v>
@@ -6554,17 +6554,17 @@
         <v>6</v>
       </c>
       <c r="AE32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF32" s="5" t="s">
+      <c r="AG32" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG32" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -6573,17 +6573,17 @@
         <v>46</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
@@ -6607,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1">
         <v>2013</v>
@@ -6625,7 +6625,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I33" s="1">
         <v>2009</v>
@@ -6643,11 +6643,11 @@
         <v>55</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q33" s="1">
         <v>5</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>60</v>
@@ -6679,7 +6679,7 @@
         <v>59</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB33" s="1">
         <v>2009</v>
@@ -6691,17 +6691,17 @@
         <v>6</v>
       </c>
       <c r="AE33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF33" s="5" t="s">
+      <c r="AG33" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG33" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -6710,17 +6710,17 @@
         <v>46</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
@@ -6744,13 +6744,13 @@
         <v>77</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1">
         <v>2013</v>
@@ -6762,7 +6762,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I34" s="1">
         <v>2009</v>
@@ -6780,11 +6780,11 @@
         <v>55</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q34" s="1">
         <v>5</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
@@ -6816,7 +6816,7 @@
         <v>59</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB34" s="1">
         <v>2009</v>
@@ -6828,17 +6828,17 @@
         <v>6</v>
       </c>
       <c r="AE34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF34" s="5" t="s">
+      <c r="AG34" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG34" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -6847,17 +6847,17 @@
         <v>46</v>
       </c>
       <c r="AN34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
@@ -6881,13 +6881,13 @@
         <v>78</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1">
         <v>2013</v>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I35" s="1">
         <v>2009</v>
@@ -6917,11 +6917,11 @@
         <v>55</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="1">
         <v>5</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>60</v>
@@ -6953,7 +6953,7 @@
         <v>59</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB35" s="1">
         <v>2009</v>
@@ -6965,17 +6965,17 @@
         <v>6</v>
       </c>
       <c r="AE35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF35" s="5" t="s">
+      <c r="AG35" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG35" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -6984,17 +6984,17 @@
         <v>46</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
@@ -7018,13 +7018,13 @@
         <v>79</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1">
         <v>2013</v>
@@ -7036,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I36" s="1">
         <v>2009</v>
@@ -7054,11 +7054,11 @@
         <v>55</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="1">
         <v>5</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>60</v>
@@ -7090,7 +7090,7 @@
         <v>59</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB36" s="1">
         <v>2009</v>
@@ -7102,17 +7102,17 @@
         <v>6</v>
       </c>
       <c r="AE36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF36" s="5" t="s">
+      <c r="AG36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -7121,17 +7121,17 @@
         <v>46</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
@@ -7155,13 +7155,13 @@
         <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1">
         <v>2013</v>
@@ -7173,7 +7173,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I37" s="1">
         <v>2009</v>
@@ -7191,11 +7191,11 @@
         <v>55</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="1">
         <v>5</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>60</v>
@@ -7227,7 +7227,7 @@
         <v>59</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB37" s="1">
         <v>2009</v>
@@ -7239,17 +7239,17 @@
         <v>6</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF37" s="5" t="s">
+      <c r="AG37" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -7258,17 +7258,17 @@
         <v>46</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
@@ -7292,13 +7292,13 @@
         <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1">
         <v>2013</v>
@@ -7310,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I38" s="1">
         <v>2009</v>
@@ -7328,11 +7328,11 @@
         <v>55</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="1">
         <v>5</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>60</v>
@@ -7364,7 +7364,7 @@
         <v>59</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB38" s="1">
         <v>2009</v>
@@ -7376,17 +7376,17 @@
         <v>6</v>
       </c>
       <c r="AE38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF38" s="5" t="s">
+      <c r="AG38" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -7395,17 +7395,17 @@
         <v>46</v>
       </c>
       <c r="AN38" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
@@ -7429,13 +7429,13 @@
         <v>82</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="1">
         <v>2013</v>
@@ -7447,7 +7447,7 @@
         <v>7</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I39" s="1">
         <v>2009</v>
@@ -7465,11 +7465,11 @@
         <v>55</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q39" s="1">
         <v>5</v>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>60</v>
@@ -7501,7 +7501,7 @@
         <v>59</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB39" s="1">
         <v>2009</v>
@@ -7513,17 +7513,17 @@
         <v>6</v>
       </c>
       <c r="AE39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF39" s="5" t="s">
+      <c r="AG39" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -7532,17 +7532,17 @@
         <v>46</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
@@ -7566,13 +7566,13 @@
         <v>83</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1">
         <v>2013</v>
@@ -7584,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I40" s="1">
         <v>2009</v>
@@ -7602,11 +7602,11 @@
         <v>55</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q40" s="1">
         <v>5</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>60</v>
@@ -7638,7 +7638,7 @@
         <v>59</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB40" s="1">
         <v>2009</v>
@@ -7650,17 +7650,17 @@
         <v>6</v>
       </c>
       <c r="AE40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF40" s="5" t="s">
+      <c r="AG40" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -7669,17 +7669,17 @@
         <v>46</v>
       </c>
       <c r="AN40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
@@ -7703,13 +7703,13 @@
         <v>84</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1">
         <v>2013</v>
@@ -7721,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I41" s="1">
         <v>2009</v>
@@ -7739,11 +7739,11 @@
         <v>55</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q41" s="1">
         <v>5</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>60</v>
@@ -7775,7 +7775,7 @@
         <v>59</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB41" s="1">
         <v>2009</v>
@@ -7787,17 +7787,17 @@
         <v>6</v>
       </c>
       <c r="AE41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF41" s="5" t="s">
+      <c r="AG41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG41" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -7806,17 +7806,17 @@
         <v>46</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -7840,13 +7840,13 @@
         <v>85</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1">
         <v>2013</v>
@@ -7858,7 +7858,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I42" s="1">
         <v>2009</v>
@@ -7876,11 +7876,11 @@
         <v>55</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q42" s="1">
         <v>5</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>60</v>
@@ -7912,7 +7912,7 @@
         <v>59</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB42" s="1">
         <v>2009</v>
@@ -7924,17 +7924,17 @@
         <v>6</v>
       </c>
       <c r="AE42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF42" s="5" t="s">
+      <c r="AG42" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -7943,17 +7943,17 @@
         <v>46</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
@@ -7977,13 +7977,13 @@
         <v>86</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1">
         <v>2013</v>
@@ -7995,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I43" s="1">
         <v>2009</v>
@@ -8013,11 +8013,11 @@
         <v>55</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q43" s="1">
         <v>5</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>60</v>
@@ -8049,7 +8049,7 @@
         <v>59</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB43" s="1">
         <v>2009</v>
@@ -8061,17 +8061,17 @@
         <v>6</v>
       </c>
       <c r="AE43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF43" s="5" t="s">
+      <c r="AG43" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -8080,17 +8080,17 @@
         <v>46</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
@@ -8114,13 +8114,13 @@
         <v>87</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1">
         <v>2013</v>
@@ -8132,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I44" s="1">
         <v>2009</v>
@@ -8150,11 +8150,11 @@
         <v>55</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q44" s="1">
         <v>5</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>60</v>
@@ -8186,7 +8186,7 @@
         <v>59</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB44" s="1">
         <v>2009</v>
@@ -8198,17 +8198,17 @@
         <v>6</v>
       </c>
       <c r="AE44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF44" s="5" t="s">
+      <c r="AG44" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG44" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -8217,17 +8217,17 @@
         <v>46</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP44" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
@@ -8251,13 +8251,13 @@
         <v>88</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1">
         <v>2013</v>
@@ -8269,7 +8269,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I45" s="1">
         <v>2009</v>
@@ -8287,11 +8287,11 @@
         <v>55</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q45" s="1">
         <v>5</v>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>60</v>
@@ -8323,7 +8323,7 @@
         <v>59</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB45" s="1">
         <v>2009</v>
@@ -8335,17 +8335,17 @@
         <v>6</v>
       </c>
       <c r="AE45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AF45" s="5" t="s">
+      <c r="AG45" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
@@ -8354,17 +8354,17 @@
         <v>46</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
@@ -8451,51 +8451,51 @@
   <sheetData>
     <row r="1" spans="2:10" s="13" customFormat="1">
       <c r="B1" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("&lt;field&gt;",C2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;CAS&lt;/field&gt;</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("&lt;field&gt;",$E2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Red Sea and Gulf of Aden&lt;/field&gt;</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H13" si="0">CONCATENATE("&lt;field&gt;",$G2,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Coral Reef&lt;/field&gt;</v>
       </c>
       <c r="I2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J7" si="1">CONCATENATE("&lt;field&gt;",$I2,"&lt;/field&gt;")</f>
@@ -8504,31 +8504,31 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D12" si="2">CONCATENATE("&lt;field&gt;",C3,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;IBRC&lt;/field&gt;</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F26" si="3">CONCATENATE("&lt;field&gt;",$E3,"&lt;/field&gt;")</f>
         <v>&lt;field&gt;Somali/Arabian&lt;/field&gt;</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Intertidal&lt;/field&gt;</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
@@ -8537,28 +8537,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;KAUST&lt;/field&gt;</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Western Indian Ocean&lt;/field&gt;</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Fouling&lt;/field&gt;</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -8567,28 +8567,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;ODU&lt;/field&gt;</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;West and South Indian Shelf&lt;/field&gt;</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Macroalgae&lt;/field&gt;</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
@@ -8597,28 +8597,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;StellenboschU&lt;/field&gt;</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Central Indian Ocean Islands&lt;/field&gt;</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Mangrove&lt;/field&gt;</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
@@ -8627,28 +8627,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="C7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;STRI&lt;/field&gt;</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Bay of Bengal&lt;/field&gt;</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;field&gt;Mud&lt;/field&gt;</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
@@ -8657,21 +8657,21 @@
     </row>
     <row r="8" spans="2:10">
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;TAMU&lt;/field&gt;</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Andaman&lt;/field&gt;</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -8680,21 +8680,21 @@
     </row>
     <row r="9" spans="2:10">
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UCLA&lt;/field&gt;</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;South China Sea&lt;/field&gt;</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -8703,21 +8703,21 @@
     </row>
     <row r="10" spans="2:10">
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UH&lt;/field&gt;</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Sunda Shelf&lt;/field&gt;</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -8726,21 +8726,21 @@
     </row>
     <row r="11" spans="2:10">
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UPMSI&lt;/field&gt;</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Java Transitional&lt;/field&gt;</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -8749,21 +8749,21 @@
     </row>
     <row r="12" spans="2:10">
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>&lt;field&gt;UQ&lt;/field&gt;</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;South Kuroshio&lt;/field&gt;</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -8772,14 +8772,14 @@
     </row>
     <row r="13" spans="2:10">
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
         <v>&lt;field&gt;Tropical Northwestern Pacific&lt;/field&gt;</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="E15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="22" spans="5:6">
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="3"/>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="23" spans="5:6">
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="3"/>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="25" spans="5:6">
       <c r="E25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
